--- a/myapp/media/form_data.xlsx
+++ b/myapp/media/form_data.xlsx
@@ -1,103 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Murod\web\myproject\myapp\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E97F7E5-CC5C-4960-84B9-DF9ED03FA933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>ФИО на латинице</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>Гражданство Таджикистана (1 - Да, 0 - Нет)</t>
-  </si>
-  <si>
-    <t>Если RESIDENT 0 - COUNTRY обязательное поле</t>
-  </si>
-  <si>
-    <t>Серия паспорта</t>
-  </si>
-  <si>
-    <t>Номер паспорта</t>
-  </si>
-  <si>
-    <t>Дата выдачи</t>
-  </si>
-  <si>
-    <t>Дата истечения</t>
-  </si>
-  <si>
-    <t>Кем выдан паспорт</t>
-  </si>
-  <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Секретный вопрос</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>Адрес проживания/прописки</t>
-  </si>
-  <si>
-    <t>Имя на карте</t>
-  </si>
-  <si>
-    <t>Заполняется сотрудником банка</t>
-  </si>
-  <si>
-    <t>Зарплата сотрудников</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,105 +410,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col width="2" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="37.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="4.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="26" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="40.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="44.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="16" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="24.7109375" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="10" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="28.42578125" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" min="19" max="20"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО на латинице</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Гражданство Таджикистана (1 - Да, 0 - Нет)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Если RESIDENT 0 - COUNTRY обязательное поле</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Серия паспорта</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Номер паспорта</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Дата выдачи</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Дата истечения</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Кем выдан паспорт</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Номер телефона</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ИНН</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Секретный вопрос</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Ответ</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Адрес проживания/прописки</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Имя на карте</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Заполняется сотрудником банка</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Заполняется сотрудником банка</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Заполняется сотрудником банка</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата сотрудников</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Машрабов Диловар Хамидуллоевич</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mashrabov Dilovar Khamidulloevich</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.09.2000</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12312312</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>02.01.2021</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ШВКД-1 дар нохияи Рудаки</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>123123123</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Диловар</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>112332</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Dilovar Mashrabov</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/myapp/media/form_data.xlsx
+++ b/myapp/media/form_data.xlsx
@@ -3,23 +3,31 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -33,12 +41,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -47,8 +70,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,35 +441,12 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="37.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="4.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="26" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="40.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="44.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="15.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="16" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="24.7109375" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="10" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="28.42578125" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="31.28515625" bestFit="1" customWidth="1" min="19" max="20"/>
-    <col width="31.28515625" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" min="23" max="23"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>#</t>
@@ -544,12 +544,17 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Заполняется сотрудником банка</t>
+          <t>Заполняется сотрудником банка.1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 20</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Заполняется сотрудником банка</t>
+          <t>Заполняется сотрудником банка.2</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -564,7 +569,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Машрабов Диловар Хамидуллоевич</t>
+          <t>давлатов саидмухаммадшох давлатович</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -574,12 +579,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mashrabov Dilovar Khamidulloevich</t>
+          <t>DAVLATOV SAIDMUHAMMADSHOH DAVLATOVICH</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.09.2000</t>
+          <t>08.01.1988</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -595,12 +600,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12312312</t>
+          <t>52435545</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>02.01.2021</t>
+          <t>01.01.2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -610,16 +615,18 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ШВКД-1 дар нохияи Рудаки</t>
+          <t>ШВКД-1 дар нохияи Фирдавси</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>123123123</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>123123123</v>
+          <t>502008005</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>885875485</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -628,17 +635,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Диловар</t>
+          <t>Саидмухаммадшох</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>112332</t>
+          <t>Ул. Сомони 2</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Dilovar Mashrabov</t>
+          <t>S. DAVLATOV</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -648,6 +655,6 @@
       <c r="W2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/myapp/media/form_data.xlsx
+++ b/myapp/media/form_data.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,11 +648,785 @@
           <t>S. DAVLATOV</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Завлабов Давлат</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DAVLATOV DAVLAT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.08.1972</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>64645362</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ШВКД-2 дар нохияи Шохмансур</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>887787878</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>000000009</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Давлат</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Ул. Мини 443</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>DAVLAT DAVLATOV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Давали Недавали</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DAVALI NEDAVALI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01.01.1988</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>09090909</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>01.01.2034</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ШВКД дар нохияи Дусти</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>908754444</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>099890909</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Недавали</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Ул. Синг 43</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>NEDAVALI DAVALI</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myapp/media/form_data.xlsx
+++ b/myapp/media/form_data.xlsx
@@ -1,126 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Murod\web\myproject\myapp\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8030190-F41F-4742-9657-E48F5C49814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>ФИО на латинице</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>Гражданство Таджикистана (1 - Да, 0 - Нет)</t>
-  </si>
-  <si>
-    <t>Если RESIDENT 0 - COUNTRY обязательное поле</t>
-  </si>
-  <si>
-    <t>Серия паспорта</t>
-  </si>
-  <si>
-    <t>Номер паспорта</t>
-  </si>
-  <si>
-    <t>Дата выдачи</t>
-  </si>
-  <si>
-    <t>Дата истечения</t>
-  </si>
-  <si>
-    <t>Кем выдан паспорт</t>
-  </si>
-  <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Секретный вопрос</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>Адрес проживания/прописки</t>
-  </si>
-  <si>
-    <t>Имя на карте</t>
-  </si>
-  <si>
-    <t>Заполняется сотрудником банка</t>
-  </si>
-  <si>
-    <t>Заполняется сотрудником банка.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Заполняется сотрудником банка.2</t>
-  </si>
-  <si>
-    <t>Зарплата сотрудников</t>
-  </si>
-  <si>
-    <t>Работа/Учеба</t>
-  </si>
-  <si>
-    <t>Регион</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -459,91 +433,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО на латинице</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Гражданство Таджикистана (1 - Да, 0 - Нет)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Если RESIDENT 0 - COUNTRY обязательное поле</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Серия паспорта</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Номер паспорта</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Дата выдачи</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Дата истечения</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Кем выдан паспорт</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Номер телефона</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ИНН</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Работа/Учеба</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Регион</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Секретный вопрос</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ответ</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Адрес проживания/прописки</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Имя на карте</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Заполняется сотрудником банка</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Заполняется сотрудником банка.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Заполняется сотрудником банка.2</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата сотрудников</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Давлатов Давлат Давлатович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DAVLATOV DAVLAT DAVLATOVICH</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>02.01.1995</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12312312</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>03.01.2034</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>РВКД дар шахри Душанбе</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>И.Сомони</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Давлат</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>DAVLAT DAVLATOV</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myapp/media/form_data.xlsx
+++ b/myapp/media/form_data.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
@@ -638,7 +638,6 @@
           <t>123123123</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>И.Сомони</t>
@@ -664,11 +663,107 @@
           <t>DAVLAT DAVLATOV</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Давлатовчонов Давлатали Давлатович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DAVLATJONOV DAVLATALI DAVLATOVICH</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03.01.2000</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12312312</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>26.01.2024</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>15.06.2038</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>РВКД дар шахри Душанбе</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>113123123</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>И.Сомони</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Давлатали</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D. DAVLATJONOV</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myapp/media/form_data.xlsx
+++ b/myapp/media/form_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Murod\web\myproject\myapp\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41658F76-FD53-4873-A8F5-8F5B1537A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D16DE59-9450-402B-9D96-774B2399E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +64,9 @@
     <t>ИНН</t>
   </si>
   <si>
+    <t>userType</t>
+  </si>
+  <si>
     <t>Работа/Учеба</t>
   </si>
   <si>
@@ -88,16 +91,109 @@
     <t>Заполняется сотрудником банка.1</t>
   </si>
   <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
     <t>Заполняется сотрудником банка.2</t>
   </si>
   <si>
     <t>Зарплата сотрудников</t>
   </si>
   <si>
-    <t>userType</t>
+    <t>Давлатов Давлат Давлатович</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>DAVLATOV DAVLAT DAVLATOVICH</t>
+  </si>
+  <si>
+    <t>09.06.1999</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>12312312</t>
+  </si>
+  <si>
+    <t>12.05.2024</t>
+  </si>
+  <si>
+    <t>13.05.2034</t>
+  </si>
+  <si>
+    <t>РВКД дар шахри Душанбе</t>
+  </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
+    <t>Донишчу</t>
+  </si>
+  <si>
+    <t>3dasd2312</t>
+  </si>
+  <si>
+    <t>И.Сомони</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Давлат</t>
+  </si>
+  <si>
+    <t>DAVLAT DAVLATOV</t>
+  </si>
+  <si>
+    <t>Диловар Машрабов</t>
+  </si>
+  <si>
+    <t>DILOVAR MASHRABOV</t>
+  </si>
+  <si>
+    <t>25.09.2000</t>
+  </si>
+  <si>
+    <t>01.01.2000</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>556550088</t>
+  </si>
+  <si>
+    <t>231123123</t>
+  </si>
+  <si>
+    <t>Талаба</t>
+  </si>
+  <si>
+    <t>йцуйцуйцуйцуйцу</t>
+  </si>
+  <si>
+    <t>Машрабов</t>
+  </si>
+  <si>
+    <t>ВФЫВФЫв ыфафыа</t>
+  </si>
+  <si>
+    <t>MASHRABOV DILOVAR</t>
+  </si>
+  <si>
+    <t>19.09.2000</t>
+  </si>
+  <si>
+    <t>01.04.2024</t>
+  </si>
+  <si>
+    <t>02.04.2034</t>
+  </si>
+  <si>
+    <t>Донишгоҳи Техникии Тоҷикистон Ба Номи Акад. М.С. Осимӣ</t>
+  </si>
+  <si>
+    <t>выфвфывфы фыв</t>
   </si>
 </sst>
 </file>
@@ -463,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,40 +611,232 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
